--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
@@ -11,8 +11,17 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,12 +363,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -374,6 +378,11 @@
     <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>aaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbbb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -374,6 +378,11 @@
     <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,13 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>aaaa</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>bbbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dddd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -367,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -385,6 +389,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,13 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>aaaa</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>bbbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ccc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -367,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -385,6 +389,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -394,6 +394,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="2:2">
+      <c r="B5">
+        <v>1111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -394,6 +394,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="2:2">
+      <c r="B5">
+        <v>2222</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>aaaa</t>
     <phoneticPr fontId="1"/>
@@ -27,6 +27,10 @@
   </si>
   <si>
     <t>dddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sourcetree</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -374,7 +378,7 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -395,8 +399,8 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5">
-        <v>2222</v>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>aaaa</t>
     <phoneticPr fontId="1"/>
@@ -27,6 +27,10 @@
   </si>
   <si>
     <t>dddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>github for win</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -374,7 +378,7 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -395,8 +399,8 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5">
-        <v>2222</v>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>aaaa</t>
     <phoneticPr fontId="1"/>
@@ -27,10 +27,6 @@
   </si>
   <si>
     <t>dddd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>github for win</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -378,7 +374,7 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -399,8 +395,8 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5">
+        <v>2222</v>
       </c>
     </row>
   </sheetData>
